--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>23.01683033333333</v>
+        <v>0.09179766666666667</v>
       </c>
       <c r="H2">
-        <v>69.05049100000001</v>
+        <v>0.275393</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.175804666666667</v>
+        <v>5.828378333333333</v>
       </c>
       <c r="N2">
-        <v>21.527414</v>
+        <v>17.485135</v>
       </c>
       <c r="O2">
-        <v>0.1618789277039843</v>
+        <v>0.1413867973615592</v>
       </c>
       <c r="P2">
-        <v>0.1618789277039842</v>
+        <v>0.1413867973615592</v>
       </c>
       <c r="Q2">
-        <v>165.1642785178082</v>
+        <v>0.5350315314505556</v>
       </c>
       <c r="R2">
-        <v>1486.478506660274</v>
+        <v>4.815283783054999</v>
       </c>
       <c r="S2">
-        <v>0.1618789277039843</v>
+        <v>0.1413867973615592</v>
       </c>
       <c r="T2">
-        <v>0.1618789277039842</v>
+        <v>0.1413867973615592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>23.01683033333333</v>
+        <v>0.09179766666666667</v>
       </c>
       <c r="H3">
-        <v>69.05049100000001</v>
+        <v>0.275393</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>74.764876</v>
       </c>
       <c r="O3">
-        <v>0.5622067730383848</v>
+        <v>0.604557320991465</v>
       </c>
       <c r="P3">
-        <v>0.5622067730383847</v>
+        <v>0.604557320991465</v>
       </c>
       <c r="Q3">
-        <v>573.6168219282351</v>
+        <v>2.287747055140889</v>
       </c>
       <c r="R3">
-        <v>5162.551397354116</v>
+        <v>20.589723496268</v>
       </c>
       <c r="S3">
-        <v>0.5622067730383848</v>
+        <v>0.604557320991465</v>
       </c>
       <c r="T3">
-        <v>0.5622067730383847</v>
+        <v>0.604557320991465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>23.01683033333333</v>
+        <v>0.09179766666666667</v>
       </c>
       <c r="H4">
-        <v>69.05049100000001</v>
+        <v>0.275393</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.23078966666667</v>
+        <v>10.47292833333333</v>
       </c>
       <c r="N4">
-        <v>36.692369</v>
+        <v>31.418785</v>
       </c>
       <c r="O4">
-        <v>0.2759142992576309</v>
+        <v>0.2540558816469758</v>
       </c>
       <c r="P4">
-        <v>0.2759142992576308</v>
+        <v>0.2540558816469758</v>
       </c>
       <c r="Q4">
-        <v>281.5140106003532</v>
+        <v>0.9613903841672222</v>
       </c>
       <c r="R4">
-        <v>2533.626095403179</v>
+        <v>8.652513457505</v>
       </c>
       <c r="S4">
-        <v>0.2759142992576309</v>
+        <v>0.2540558816469758</v>
       </c>
       <c r="T4">
-        <v>0.2759142992576308</v>
+        <v>0.2540558816469758</v>
       </c>
     </row>
   </sheetData>
